--- a/Jogos_do_Dia/2022-12-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,33 +612,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44914.40625</v>
+        <v>44914.33333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -665,34 +665,34 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>2.64</v>
       </c>
       <c r="W2" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.94</v>
+        <v>3.27</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -726,104 +726,104 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44914.5</v>
+        <v>44914.40625</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="X3" t="n">
-        <v>1.23</v>
+        <v>1.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -843,97 +843,97 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="W4" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -946,83 +946,83 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44914.58333333334</v>
+        <v>44914.5</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
         <v>2.33</v>
       </c>
       <c r="W5" t="n">
-        <v>0.75</v>
+        <v>2.33</v>
       </c>
       <c r="X5" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1052,440 +1052,550 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44914.625</v>
+        <v>44914.58333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botoşani</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>2.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X6" t="n">
-        <v>2.05</v>
+        <v>1.51</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.13</v>
+        <v>2.57</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44914.6875</v>
+        <v>44914.625</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Botoşani</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.88</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72</v>
+        <v>5.22</v>
       </c>
       <c r="I7" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="L7" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="T7" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.55</v>
+        <v>2.64</v>
       </c>
       <c r="V7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W7" t="n">
         <v>1</v>
       </c>
-      <c r="W7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X7" t="n">
-        <v>1.49</v>
+        <v>2.05</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.67</v>
+        <v>7.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.26</v>
+        <v>3.18</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.98</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44914.70833333334</v>
+        <v>44914.6875</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M8" t="n">
         <v>2.28</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.62</v>
-      </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="T8" t="n">
         <v>1.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AE8" t="n">
         <v>1.43</v>
       </c>
-      <c r="Y8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AF8" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.88</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
         <v>44914.70833333334</v>
       </c>
       <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44914.70833333334</v>
+      </c>
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Wigan Athletic</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sheffield United</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>3.62</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>3.38</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2.05</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1.07</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>9.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1.38</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>3.1</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>2.11</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>1.73</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>1.44</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>1.83</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R10" t="n">
         <v>1.83</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>1.83</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>1.28</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U10" t="n">
         <v>1.26</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V10" t="n">
         <v>0.82</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W10" t="n">
         <v>1.82</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X10" t="n">
         <v>1.38</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y10" t="n">
         <v>1.36</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z10" t="n">
         <v>2.74</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA10" t="n">
         <v>2.59</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB10" t="n">
         <v>7.7</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC10" t="n">
         <v>1.75</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD10" t="n">
         <v>1.25</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE10" t="n">
         <v>1.49</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF10" t="n">
         <v>1.88</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG10" t="n">
         <v>2.42</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH10" t="n">
         <v>3.28</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2022-12-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -641,10 +641,10 @@
         <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K2" t="n">
         <v>1.11</v>
@@ -659,10 +659,10 @@
         <v>2.62</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
         <v>1.75</v>
@@ -805,25 +805,25 @@
         <v>2.94</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -876,7 +876,7 @@
         <v>2.25</v>
       </c>
       <c r="N4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.49</v>
@@ -924,7 +924,7 @@
         <v>2.17</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE4" t="n">
         <v>1.62</v>
@@ -936,7 +936,7 @@
         <v>2.53</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>2.65</v>
       </c>
       <c r="M5" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1025,28 +1025,28 @@
         <v>2.68</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
         <v>2.33</v>
@@ -1135,25 +1135,25 @@
         <v>2.57</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5.22</v>
+        <v>6.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.05</v>
@@ -1203,10 +1203,10 @@
         <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.8</v>
       </c>
       <c r="M8" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.11</v>
@@ -1417,16 +1417,16 @@
         <v>6.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M9" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
